--- a/biology/Botanique/Bergstraße/Bergstraße.xlsx
+++ b/biology/Botanique/Bergstraße/Bergstraße.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bergstra%C3%9Fe</t>
+          <t>Bergstraße</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bergstraße (ou Bergstrasse, en français route de la montagne) est une route située en Allemagne entre Heidelberg et Darmstadt. Elle est tracée à la limite entre les petites hauteurs du massif de l’Odenwald et la vaste plaine du Rhin.
 Cette route traverse une région agréable et hospitalière, dont l'excellent climat est propice au développement de la vigne. Elle est réputée pour la beauté de ses paysages, ses petites villes médiévales romantiques aux maisons à colombage et les nombreux châteaux implantés au sommet des collines.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bergstra%C3%9Fe</t>
+          <t>Bergstraße</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>La route</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La route de Heidelberg à Darmstadt, voit une succession de villes et de villages de vignobles :
 Dossenheim, Schriesheim, Hirschberg an der Bergstraße, Weinheim ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bergstra%C3%9Fe</t>
+          <t>Bergstraße</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Le vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La partie principale du vignoble (’'Bereich Starkenburg) s'étend entre Zwingenberg et Heppenheim, au sud de Darmstadt, et fait surtout du Riesling. 
 Une partie secondaire (Bereich Umstadt ou Odenwälder Weininsel) entoure Umstadt, à l'est de Darmstadt. Ses six appellations contrôlées produisent surtout du Müller-Thurgau et du Rülander.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bergstra%C3%9Fe</t>
+          <t>Bergstraße</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Les producteurs réputés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>à Bensheim : Staatsweingut Bergstraße, le prestigieux domaine viticole d'État ;
 à Heppenheim : Bergsträßer Gebiets-Winzergenoßenschaft.</t>
